--- a/Java/Abstract_Interface_Prototype_Patterns/zipCode_info.xlsx
+++ b/Java/Abstract_Interface_Prototype_Patterns/zipCode_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbray\eclipse-workspace\Jan27-Jan31-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532681CE-7573-4E8F-8724-88CEBC0F89F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3406311E-3E59-4DB9-AADF-E0AE58FF16EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5355" yWindow="1650" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F304870C-87AA-4362-9676-E7476A9B03AA}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
